--- a/biology/Médecine/Acuité_auditive/Acuité_auditive.xlsx
+++ b/biology/Médecine/Acuité_auditive/Acuité_auditive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acuit%C3%A9_auditive</t>
+          <t>Acuité_auditive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acuité auditive humaine est le champ des fréquences perceptibles par l'oreille humaine ainsi que le seuil de leur perceptibilité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acuit%C3%A9_auditive</t>
+          <t>Acuité_auditive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Principes fondamentaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les individus ne sont pas égaux devant la perception du son. Un certain nombre de facteurs influencent la perception acoustique de chacun :
-le sexe (la différence morphologique existe aussi sur la cochlée qui fait que les femmes ont une meilleur écoute des haute fréquence[1]).
+le sexe (la différence morphologique existe aussi sur la cochlée qui fait que les femmes ont une meilleur écoute des haute fréquence).
 l'âge (la sensibilité acoustique diminue généralement avec l'âge) ;
 les prédispositions (hérédité) ;
 l'éducation de l'oreille (on peut apprendre à percevoir ce qui nous était imperceptible auparavant).</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acuit%C3%A9_auditive</t>
+          <t>Acuité_auditive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Champ auditif de l'oreille humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si en théorie l'oreille humaine est censée percevoir des fréquences comprises entre 20 Hz et 20 000 Hz, en réalité l'expérience montre qu'il n'y a pas deux individus qui entendent les mêmes choses. Pour déterminer les limites de perception de l'oreille, on doit passer un test d'audiométrie. Ce test détermine quelles fréquences (mesurées en hertz) on entend et en dessous de quelles intensités (mesurées en décibels) on ne les perçoit pas. On obtient ainsi une courbe audiométrique.
 On sait que lorsque l'âge augmente, la perception des fréquences aiguës diminue. Cependant, à l'âge d'une oreille parfaitement intègre (de 0 à 30 ans), la fréquence maximale audible est imprévisible. Certaines personnes ne perçoivent rien au-delà de 8 000 Hz, d'autres entendent jusqu'à 25 000 Hz.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acuit%C3%A9_auditive</t>
+          <t>Acuité_auditive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Seuil d'audibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le seuil d'audibilité (ou seuil d'audition) correspond, pour des sons purs à différentes fréquences, au plus petit niveau sonore audible.
 La perception sonore, qui est une donnée subjective, se mesure en phones ou en sones, contrairement au niveau sonore qui se mesure en décibels (dB) SPL (pour Sound Pressure Level). Globalement, pour des sons purs aux fréquences dites moyennes (1000 - 4 000 Hz), 10 dB-SPL supplémentaires correspondent à peu près à un doublement de la phonie, c'est-à-dire à un son subjectivement deux fois plus fort. Ceci n'est plus vrai aux fréquences extrêmes, pour lesquelles il faut augmenter l'intensité davantage, ni pour les sons déjà forts (&gt; 120 dB-SPL), lorsque la perception confine à la douleur, où se manifeste un effet de compression.
